--- a/public/assets/family-io.xlsx
+++ b/public/assets/family-io.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD4143A-71FA-6D49-849A-1A213404D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2E275-6A8E-A449-91D3-3370F8749A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="-24940" windowWidth="27640" windowHeight="16940" xr2:uid="{412B832E-AC4B-C84C-9729-72D7D7B5C615}"/>
+    <workbookView xWindow="-11920" yWindow="-28320" windowWidth="51200" windowHeight="28320" xr2:uid="{412B832E-AC4B-C84C-9729-72D7D7B5C615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>家庭收入支出表-年度</t>
   </si>
@@ -117,28 +117,6 @@
   </si>
   <si>
     <t>保险</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结余比率=年度结余/年度总收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-结余比率=20%左右，合适</t>
-    </r>
   </si>
   <si>
     <t>房租</t>
@@ -256,6 +234,30 @@
   <si>
     <t>年度总支出</t>
   </si>
+  <si>
+    <t>备注:</t>
+  </si>
+  <si>
+    <t>1. 表格上所有有颜色的部分均不需要填写，不得修改，已设置公式自动计算；</t>
+  </si>
+  <si>
+    <t>2. 请填写表格上无颜色部分，可做适度修改，增加未列项，可在无颜色表格中小计前一行无颜色行上插入增加行。</t>
+  </si>
+  <si>
+    <r>
+      <t>结余比率=年度结余/年度总收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑 Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+结余比率=20%左右，合适</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,8 +321,31 @@
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +366,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,12 +373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6DEB5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,24 +396,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -507,17 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -527,30 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -573,12 +569,151 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -586,170 +721,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,6 +902,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF93CDDC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1065,272 +1215,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D074C-1C27-DF41-B55E-6F259F5A6B7B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <f>C21/C22</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="12">
         <f>F21/F22</f>
         <v>0.48</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <f>C15/F22</f>
         <v>0.64</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="16">
         <f>SUM(F4:F6)</f>
         <v>12</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="18"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="17">
         <f>SUM(C4:C8)</f>
         <v>22</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="16">
         <f>SUM(F8:F9)</f>
         <v>2</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="13"/>
+      <c r="B12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="32"/>
@@ -1338,100 +1489,100 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="13">
+      <c r="A14" s="13"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="16">
         <f>SUM(F11:F13)</f>
         <v>3</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="35"/>
-      <c r="B15" s="44" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="17">
         <f>SUM(C10:C14)</f>
         <v>16</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="17">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13">
+      <c r="B16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="18"/>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>2</v>
       </c>
       <c r="G17" s="32"/>
@@ -1439,109 +1590,148 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="13">
-        <v>3</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="13">
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="13"/>
+      <c r="B19" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="45"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="17">
         <f>SUM(C16:C19)</f>
         <v>7</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="16">
         <f>SUM(F15:F19)</f>
         <v>8</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="48">
+      <c r="C21" s="42">
         <f>C22-F22</f>
         <v>20</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="49">
+      <c r="D21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44">
         <f>F7</f>
         <v>12</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="46"/>
-      <c r="B22" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="51">
+      <c r="A22" s="55"/>
+      <c r="B22" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="40">
         <f>SUM(C20,C15,C9)</f>
         <v>45</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="51">
+      <c r="D22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40">
         <f>SUM(F7,F10,F14,F20)</f>
         <v>25</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="17">
+      <c r="A23" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="A24" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1567,5 +1757,6 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>